--- a/com.freecrm.uiAutomation/TestData.xlsx
+++ b/com.freecrm.uiAutomation/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="NewContact" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NewCompany" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Sen</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>CompanyStatus</t>
+  </si>
+  <si>
+    <t>LookUpCompanyInput</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -436,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -486,12 +504,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.freecrm.uiAutomation/TestData.xlsx
+++ b/com.freecrm.uiAutomation/TestData.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souni_apu\git\UiAutomationFreeCRM\com.freecrm.uiAutomation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="NewContact" sheetId="2" r:id="rId2"/>
     <sheet name="NewCompany" sheetId="3" r:id="rId3"/>
+    <sheet name="NewEvent" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>UserName</t>
   </si>
@@ -73,6 +79,27 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Event_Title</t>
+  </si>
+  <si>
+    <t>Event_From_Date</t>
+  </si>
+  <si>
+    <t>Event_End_Date</t>
+  </si>
+  <si>
+    <t>Search_Value</t>
+  </si>
+  <si>
+    <t>Event1</t>
+  </si>
+  <si>
+    <t>10-09-2018  09:05:00</t>
+  </si>
+  <si>
+    <t>10-09-2018  10:05:00</t>
   </si>
 </sst>
 </file>
@@ -114,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -542,4 +573,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>